--- a/8.10.2/UPDATE/ITEM_15/RTE/attachment/9164.xlsx
+++ b/8.10.2/UPDATE/ITEM_15/RTE/attachment/9164.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
   <si>
     <t>#</t>
   </si>
@@ -250,9 +250,6 @@
     <t>沒有支援自動觸發結案按鍵</t>
   </si>
   <si>
-    <t>舊版首頁一功能.手動送簽，其實是用意是重新送簽 (新版首頁目前未提供，且此功能定義，須再討論)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">用意: 關卡指定會簽的人員，須全部簽核
 1. 可多人
@@ -302,10 +299,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>暫移除報表簽核功能(因目前報表簽核功能不完整，為避免造成不必的要錯誤，本版先從&lt;表報流程設定&gt;上將報表清單隱藏)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>異動規格</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -335,7 +328,23 @@
     <t>當&lt;表報表流程設定&gt;設定專案編制的送簽專案=歸屬專案，系統固定取得送簽人員歸屬專案=最小的專案代號</t>
   </si>
   <si>
-    <t>專案編制功能不完整，如下所示:</t>
+    <t>現有流程看不出來報表怎麼進行簽核抽單</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>據怡伶留下的交接影片指出，當初在做郵件發送時，有提問郵件連結中含送簽報表的問題，Tracy回應，目前無專案使用報表簽核，並指示怡伶將此段程式移除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>報表簽核功能不完整，調查如下:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>專案編制功能不完整，調查如下:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;表報流程設定&gt; 重新送簽條件，目前僅舊版首頁功能.手動送簽 (即重新送簽)有效，新版首頁未提供 (業務意見: 因簽核的關卡通常一關比一關的角色職務大，送簽人員執行重新送簽，有催簽的意思，不太洽當)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -811,6 +820,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -833,12 +848,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1121,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB1031"/>
+  <dimension ref="A1:AB1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1141,14 +1150,14 @@
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>77</v>
+      <c r="B1" s="39" t="s">
+        <v>75</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1795,11 +1804,11 @@
     </row>
     <row r="21" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="29" t="s">
         <v>22</v>
       </c>
@@ -1807,7 +1816,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1833,16 +1842,16 @@
     </row>
     <row r="22" spans="1:28" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="26" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>1</v>
@@ -1871,11 +1880,11 @@
     </row>
     <row r="23" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="26" t="s">
         <v>27</v>
       </c>
@@ -1907,11 +1916,11 @@
     </row>
     <row r="24" spans="1:28" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="26" t="s">
         <v>27</v>
       </c>
@@ -1943,11 +1952,11 @@
     </row>
     <row r="25" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="26" t="s">
         <v>27</v>
       </c>
@@ -1979,11 +1988,11 @@
     </row>
     <row r="26" spans="1:28" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="26" t="s">
         <v>27</v>
       </c>
@@ -2017,11 +2026,11 @@
     </row>
     <row r="27" spans="1:28" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="28" t="s">
         <v>36</v>
       </c>
@@ -2444,7 +2453,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -2607,7 +2616,7 @@
       <c r="A45" s="25"/>
       <c r="B45" s="6"/>
       <c r="C45" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -2903,7 +2912,7 @@
       <c r="A54" s="31"/>
       <c r="B54" s="6"/>
       <c r="C54" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -3187,7 +3196,7 @@
     </row>
     <row r="63" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
@@ -3281,7 +3290,7 @@
     <row r="66" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -3405,7 +3414,7 @@
     <row r="70" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="4" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3436,7 +3445,7 @@
     <row r="71" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3466,10 +3475,10 @@
     </row>
     <row r="72" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="4" t="s">
-        <v>85</v>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4" t="s">
+        <v>84</v>
       </c>
-      <c r="C72" s="42"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3498,9 +3507,9 @@
     </row>
     <row r="73" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="41" t="s">
-        <v>82</v>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3530,10 +3539,10 @@
     </row>
     <row r="74" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="41" t="s">
-        <v>83</v>
+      <c r="B74" s="4" t="s">
+        <v>86</v>
       </c>
+      <c r="C74" s="34"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3562,9 +3571,9 @@
     </row>
     <row r="75" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="41" t="s">
-        <v>84</v>
+      <c r="B75" s="34"/>
+      <c r="C75" s="33" t="s">
+        <v>80</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3594,8 +3603,10 @@
     </row>
     <row r="76" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="33" t="s">
+        <v>81</v>
+      </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -3624,8 +3635,10 @@
     </row>
     <row r="77" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="33" t="s">
+        <v>82</v>
+      </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -32272,6 +32285,66 @@
       <c r="AA1031" s="1"/>
       <c r="AB1031" s="1"/>
     </row>
+    <row r="1032" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1032" s="1"/>
+      <c r="B1032" s="1"/>
+      <c r="C1032" s="1"/>
+      <c r="D1032" s="1"/>
+      <c r="E1032" s="1"/>
+      <c r="F1032" s="1"/>
+      <c r="G1032" s="1"/>
+      <c r="H1032" s="1"/>
+      <c r="I1032" s="1"/>
+      <c r="J1032" s="1"/>
+      <c r="K1032" s="1"/>
+      <c r="L1032" s="1"/>
+      <c r="M1032" s="1"/>
+      <c r="N1032" s="1"/>
+      <c r="O1032" s="1"/>
+      <c r="P1032" s="1"/>
+      <c r="Q1032" s="1"/>
+      <c r="R1032" s="1"/>
+      <c r="S1032" s="1"/>
+      <c r="T1032" s="1"/>
+      <c r="U1032" s="1"/>
+      <c r="V1032" s="1"/>
+      <c r="W1032" s="1"/>
+      <c r="X1032" s="1"/>
+      <c r="Y1032" s="1"/>
+      <c r="Z1032" s="1"/>
+      <c r="AA1032" s="1"/>
+      <c r="AB1032" s="1"/>
+    </row>
+    <row r="1033" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1033" s="1"/>
+      <c r="B1033" s="1"/>
+      <c r="C1033" s="1"/>
+      <c r="D1033" s="1"/>
+      <c r="E1033" s="1"/>
+      <c r="F1033" s="1"/>
+      <c r="G1033" s="1"/>
+      <c r="H1033" s="1"/>
+      <c r="I1033" s="1"/>
+      <c r="J1033" s="1"/>
+      <c r="K1033" s="1"/>
+      <c r="L1033" s="1"/>
+      <c r="M1033" s="1"/>
+      <c r="N1033" s="1"/>
+      <c r="O1033" s="1"/>
+      <c r="P1033" s="1"/>
+      <c r="Q1033" s="1"/>
+      <c r="R1033" s="1"/>
+      <c r="S1033" s="1"/>
+      <c r="T1033" s="1"/>
+      <c r="U1033" s="1"/>
+      <c r="V1033" s="1"/>
+      <c r="W1033" s="1"/>
+      <c r="X1033" s="1"/>
+      <c r="Y1033" s="1"/>
+      <c r="Z1033" s="1"/>
+      <c r="AA1033" s="1"/>
+      <c r="AB1033" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B26:D26"/>
@@ -32288,7 +32361,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <webPublishItems count="2">
     <webPublishItem id="22283" divId="9164_22283" sourceType="range" sourceRef="A1:G71" destinationFile="D:\SADocument\8.10.2\UPDATE\ITEM_15\RTE\attachment\9164.htm"/>
-    <webPublishItem id="6678" divId="9164_6678" sourceType="range" sourceRef="A1:G75" destinationFile="D:\SADocument\8.10.2\UPDATE\ITEM_15\RTE\attachment\9164.htm"/>
+    <webPublishItem id="6678" divId="9164_6678" sourceType="range" sourceRef="A1:G77" destinationFile="D:\SADocument\8.10.2\UPDATE\ITEM_15\RTE\attachment\9164.htm"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/8.10.2/UPDATE/ITEM_15/RTE/attachment/9164.xlsx
+++ b/8.10.2/UPDATE/ITEM_15/RTE/attachment/9164.xlsx
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:AB1033"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/8.10.2/UPDATE/ITEM_15/RTE/attachment/9164.xlsx
+++ b/8.10.2/UPDATE/ITEM_15/RTE/attachment/9164.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>#</t>
   </si>
@@ -68,9 +68,6 @@
     <t>執行表單: 由&lt;待簽核清單&gt; 按鍵.撤簽 執行</t>
   </si>
   <si>
-    <t>抽單(原取消送簽): 執行後，刪除該單據簽核記錄及關卡歷程，並發送郵件通知所有關卡的所有簽核類別對應的簽核對象</t>
-  </si>
-  <si>
     <t>執行時機: 單據送簽狀態 &lt;&gt; 結案</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
   </si>
   <si>
     <t>執行時機: 任一關卡的會簽人員簽核狀態=不同意 或 最後一個關卡的關卡狀態=通過，即結案</t>
-  </si>
-  <si>
-    <t>當結案否已勾選，由系統自動發送結案通知信，通知此流程所有關卡的簽核對象及送簽人員</t>
   </si>
   <si>
     <t>簽核類別定義及規格說明，如下表</t>
@@ -130,13 +124,6 @@
     <t>會辦 (原加簽)</t>
   </si>
   <si>
-    <t>用意: 在會簽過程中交辦其他人員處理事項，以利會簽人員進行簽核決策。會辦人員，不具任何簽核權限
-1. 可多人
-2. 觸發時機: 該關卡的關卡狀態=待簽，即發送會辦者郵件
-3. 會辦人員須回覆，提供填寫回覆內容，且可進行夾檔
-4. 當前關卡，會簽人員可當下決定是否增加會辦人員</t>
-  </si>
-  <si>
     <t>加簽 (原記錄移轉)</t>
   </si>
   <si>
@@ -170,15 +157,6 @@
   </si>
   <si>
     <t>中止: 當前關卡，任一會簽人員的簽核狀態=不同意，則該關卡的關卡狀態=中止</t>
-  </si>
-  <si>
-    <t>退簽: 當前關卡，任一會簽人員的簽核狀態=退簽，則該關卡的關卡狀態=退簽</t>
-  </si>
-  <si>
-    <t>若退簽關卡=上一關卡，則上一關卡，所有(會簽/加簽)人員的狀態＝空白 且 上一關卡的關卡狀態=待簽</t>
-  </si>
-  <si>
-    <t>若退簽關卡=送簽人員，則該關卡之前的關卡，所有(會簽/加簽)人員的狀態＝空白 且 關卡的關卡狀態=待簽</t>
   </si>
   <si>
     <t>核准: 當為流程上最後一個關卡的關卡狀態=通過，則單據送簽狀態=核准</t>
@@ -347,12 +325,44 @@
     <t>&lt;表報流程設定&gt; 重新送簽條件，目前僅舊版首頁功能.手動送簽 (即重新送簽)有效，新版首頁未提供 (業務意見: 因簽核的關卡通常一關比一關的角色職務大，送簽人員執行重新送簽，有催簽的意思，不太洽當)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>退簽: 當前關卡，任一會簽人員的簽核狀態=退簽，則該關卡的關卡狀態=空白， 該關卡所有人員的回覆記錄全部作癈；並重造此關卡之前的簽核歷程記錄</t>
+  </si>
+  <si>
+    <t>若退簽關卡=上一關卡，則上一關卡，所有(會簽/加簽)人員的回覆記錄全部作廢 且 上一關卡的關卡狀態=退簽</t>
+  </si>
+  <si>
+    <t>若退簽關卡=送簽人員，則該關卡之前的關卡，所有(會簽/加簽)人員的回覆記錄全部作癈 且 關卡狀態=退簽</t>
+  </si>
+  <si>
+    <t>抽單(原取消送簽): 執行後，刪除該單據簽核關卡檔及歷程檔，並發送郵件通知所有關卡的所有簽核類別對應的簽核對象</t>
+  </si>
+  <si>
+    <t>刪除資料表: 單據送簽記錄檔、單據送簽記錄附件檔、單據簽核關卡檔、單據簽核關卡歷程檔、單據簽核關卡加簽郵件替代檔、單據簽核關卡歷程回覆附件</t>
+  </si>
+  <si>
+    <t>當結案否=Y，由系統自動發送結案通知信，通知此流程所有關卡的簽核對象及送簽人員</t>
+  </si>
+  <si>
+    <t>檢查 &lt;表報流程設定&gt;，欄位.結案按鍵，當單據送簽狀態=核准，系統自動執行結案按鍵功能</t>
+  </si>
+  <si>
+    <t>結案按鍵，增加執行條件: 檢查WFS_SIGNDATA(單據送簽記錄檔).欄位.結案否=Y 且 單據送簽狀態=核准，才允執行按鍵功能</t>
+  </si>
+  <si>
+    <t>用意: 在會簽過程中交辦其他人員處理事項，以利會簽人員進行簽核決策。會辦人員，不具任何簽核權限，回覆狀態固定為同意
+1. 可多人
+2. 觸發時機: 該關卡的關卡狀態=待簽，即發送會辦者郵件
+3. 會辦人員須回覆，提供填寫回覆內容，且可進行夾檔
+4. 當前關卡，會簽人員可當下決定是否增加會辦人員"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -419,6 +429,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -446,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -471,19 +488,6 @@
         <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
@@ -540,80 +544,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="medium">
         <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="medium">
@@ -688,13 +622,11 @@
       <left style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color theme="0" tint="-0.34998626667073579"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
@@ -703,9 +635,20 @@
       <left style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
-      </right>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
       <top style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </top>
@@ -720,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,44 +679,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -781,61 +724,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,11 +736,53 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB1033"/>
+  <dimension ref="A1:AB1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1147,17 +1081,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>75</v>
+      <c r="B1" s="26" t="s">
+        <v>69</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1181,10 +1115,10 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6"/>
@@ -1215,9 +1149,9 @@
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="6"/>
@@ -1247,9 +1181,9 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="6"/>
@@ -1279,9 +1213,9 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="6"/>
@@ -1311,10 +1245,10 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
+      <c r="A6" s="15">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6"/>
@@ -1345,9 +1279,9 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6"/>
@@ -1377,9 +1311,9 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="6"/>
@@ -1409,10 +1343,10 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="A9" s="15">
         <v>3</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="6"/>
@@ -1443,9 +1377,9 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="6"/>
@@ -1475,10 +1409,10 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+      <c r="A11" s="15">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="6"/>
@@ -1509,9 +1443,9 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="6"/>
@@ -1541,9 +1475,9 @@
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="6"/>
@@ -1573,14 +1507,14 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
+      <c r="A14" s="15">
         <v>5</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>14</v>
+      <c r="B14" s="31" t="s">
+        <v>85</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
@@ -1607,12 +1541,12 @@
       <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="9" t="s">
-        <v>15</v>
+      <c r="A15" s="18"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="25" t="s">
+        <v>14</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
@@ -1639,12 +1573,12 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="9" t="s">
-        <v>16</v>
+      <c r="A16" s="18"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="25" t="s">
+        <v>15</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
@@ -1671,14 +1605,12 @@
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
-        <v>6</v>
+      <c r="A17" s="18"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="25" t="s">
+        <v>86</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
@@ -1705,13 +1637,15 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9" t="s">
-        <v>18</v>
+      <c r="A18" s="15">
+        <v>6</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="B18" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
       <c r="H18" s="1"/>
@@ -1737,13 +1671,13 @@
       <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="9" t="s">
-        <v>19</v>
+      <c r="A19" s="15"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="25" t="s">
+        <v>17</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
       <c r="H19" s="1"/>
@@ -1768,18 +1702,16 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:28" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31">
-        <v>7</v>
+    <row r="20" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="25" t="s">
+        <v>87</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1803,21 +1735,15 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="41" t="s">
-        <v>21</v>
+      <c r="A21" s="15"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25" t="s">
+        <v>88</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>76</v>
-      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1840,22 +1766,16 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="1:28" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="35" t="s">
-        <v>24</v>
+    <row r="22" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25" t="s">
+        <v>89</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>1</v>
-      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1879,19 +1799,17 @@
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="35" t="s">
-        <v>26</v>
+      <c r="A23" s="15">
+        <v>7</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="26" t="s">
-        <v>27</v>
+      <c r="B23" s="27" t="s">
+        <v>18</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="23"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1914,20 +1832,22 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="1:28" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="35" t="s">
-        <v>29</v>
+    <row r="24" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="34" t="s">
+        <v>19</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="26" t="s">
-        <v>27</v>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35" t="s">
+        <v>20</v>
       </c>
-      <c r="F24" s="26" t="s">
-        <v>30</v>
+      <c r="F24" s="35" t="s">
+        <v>21</v>
       </c>
-      <c r="G24" s="23"/>
+      <c r="G24" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1950,20 +1870,22 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="35" t="s">
-        <v>31</v>
+    <row r="25" spans="1:28" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="21" t="s">
+        <v>22</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="26" t="s">
-        <v>27</v>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="19" t="s">
+        <v>23</v>
       </c>
-      <c r="F25" s="26" t="s">
-        <v>32</v>
+      <c r="F25" s="19" t="s">
+        <v>66</v>
       </c>
-      <c r="G25" s="23"/>
+      <c r="G25" s="13" t="s">
+        <v>1</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1986,22 +1908,20 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="1:28" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="35" t="s">
-        <v>33</v>
+    <row r="26" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="21" t="s">
+        <v>24</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="26" t="s">
-        <v>27</v>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="19" t="s">
+        <v>25</v>
       </c>
-      <c r="F26" s="26" t="s">
-        <v>34</v>
+      <c r="F26" s="19" t="s">
+        <v>26</v>
       </c>
-      <c r="G26" s="23" t="s">
-        <v>1</v>
-      </c>
+      <c r="G26" s="13"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2024,22 +1944,20 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="1:28" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="37" t="s">
-        <v>35</v>
+    <row r="27" spans="1:28" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21" t="s">
+        <v>27</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="28" t="s">
-        <v>36</v>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="19" t="s">
+        <v>25</v>
       </c>
-      <c r="F27" s="28" t="s">
-        <v>37</v>
+      <c r="F27" s="19" t="s">
+        <v>28</v>
       </c>
-      <c r="G27" s="24" t="s">
-        <v>1</v>
-      </c>
+      <c r="G27" s="13"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2063,13 +1981,19 @@
       <c r="AB27" s="1"/>
     </row>
     <row r="28" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="13"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2092,18 +2016,22 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31">
-        <v>8</v>
+    <row r="29" spans="1:28" ht="81" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="21" t="s">
+        <v>31</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>38</v>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="19" t="s">
+        <v>25</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
+      <c r="F29" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>1</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2126,16 +2054,22 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="6" t="s">
-        <v>39</v>
+    <row r="30" spans="1:28" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="21" t="s">
+        <v>32</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>1</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2159,11 +2093,9 @@
       <c r="AB30" s="1"/>
     </row>
     <row r="31" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="A31" s="18"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -2191,11 +2123,13 @@
       <c r="AB31" s="1"/>
     </row>
     <row r="32" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9" t="s">
-        <v>41</v>
+      <c r="A32" s="15">
+        <v>8</v>
       </c>
+      <c r="B32" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -2223,13 +2157,11 @@
       <c r="AB32" s="1"/>
     </row>
     <row r="33" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31">
-        <v>9</v>
+      <c r="A33" s="18"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="6" t="s">
+        <v>36</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -2257,10 +2189,10 @@
       <c r="AB33" s="1"/>
     </row>
     <row r="34" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="9" t="s">
-        <v>43</v>
+      <c r="A34" s="18"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -2289,10 +2221,10 @@
       <c r="AB34" s="1"/>
     </row>
     <row r="35" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="9" t="s">
-        <v>44</v>
+      <c r="A35" s="15"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -2321,11 +2253,13 @@
       <c r="AB35" s="1"/>
     </row>
     <row r="36" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="9" t="s">
-        <v>45</v>
+      <c r="A36" s="15">
+        <v>9</v>
       </c>
+      <c r="B36" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -2353,10 +2287,10 @@
       <c r="AB36" s="1"/>
     </row>
     <row r="37" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="9" t="s">
-        <v>46</v>
+      <c r="A37" s="18"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -2385,12 +2319,12 @@
       <c r="AB37" s="1"/>
     </row>
     <row r="38" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="9" t="s">
-        <v>47</v>
+      <c r="A38" s="18"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="8" t="s">
+        <v>41</v>
       </c>
+      <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="7"/>
@@ -2417,12 +2351,12 @@
       <c r="AB38" s="1"/>
     </row>
     <row r="39" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="9" t="s">
-        <v>48</v>
+      <c r="A39" s="18"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="8" t="s">
+        <v>42</v>
       </c>
+      <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="7"/>
@@ -2449,15 +2383,13 @@
       <c r="AB39" s="1"/>
     </row>
     <row r="40" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31">
-        <v>10</v>
+      <c r="A40" s="18"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="25" t="s">
+        <v>82</v>
       </c>
-      <c r="B40" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="6"/>
       <c r="G40" s="7"/>
       <c r="H40" s="1"/>
@@ -2483,13 +2415,13 @@
       <c r="AB40" s="1"/>
     </row>
     <row r="41" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="9" t="s">
-        <v>49</v>
+      <c r="A41" s="15"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25" t="s">
+        <v>83</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="E41" s="24"/>
       <c r="F41" s="6"/>
       <c r="G41" s="7"/>
       <c r="H41" s="1"/>
@@ -2515,13 +2447,13 @@
       <c r="AB41" s="1"/>
     </row>
     <row r="42" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="9" t="s">
-        <v>50</v>
+      <c r="A42" s="15"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25" t="s">
+        <v>84</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="6"/>
       <c r="G42" s="7"/>
       <c r="H42" s="1"/>
@@ -2547,11 +2479,11 @@
       <c r="AB42" s="1"/>
     </row>
     <row r="43" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31">
-        <v>11</v>
+      <c r="A43" s="15">
+        <v>10</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>51</v>
+      <c r="B43" s="37" t="s">
+        <v>72</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -2581,10 +2513,10 @@
       <c r="AB43" s="1"/>
     </row>
     <row r="44" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="9" t="s">
-        <v>52</v>
+      <c r="A44" s="18"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -2613,10 +2545,10 @@
       <c r="AB44" s="1"/>
     </row>
     <row r="45" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="9" t="s">
-        <v>77</v>
+      <c r="A45" s="18"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -2645,12 +2577,14 @@
       <c r="AB45" s="1"/>
     </row>
     <row r="46" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="6"/>
+      <c r="A46" s="15">
+        <v>11</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>45</v>
+      </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="7"/>
@@ -2677,13 +2611,11 @@
       <c r="AB46" s="1"/>
     </row>
     <row r="47" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31">
-        <v>12</v>
+      <c r="A47" s="18"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="8" t="s">
+        <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -2711,10 +2643,10 @@
       <c r="AB47" s="1"/>
     </row>
     <row r="48" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="9" t="s">
-        <v>55</v>
+      <c r="A48" s="18"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -2743,14 +2675,12 @@
       <c r="AB48" s="1"/>
     </row>
     <row r="49" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31">
-        <v>13</v>
+      <c r="A49" s="18"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="8" t="s">
+        <v>47</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="7"/>
@@ -2777,11 +2707,11 @@
       <c r="AB49" s="1"/>
     </row>
     <row r="50" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31">
-        <v>14</v>
+      <c r="A50" s="15">
+        <v>12</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>57</v>
+      <c r="B50" s="27" t="s">
+        <v>48</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -2811,10 +2741,10 @@
       <c r="AB50" s="1"/>
     </row>
     <row r="51" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="9" t="s">
-        <v>58</v>
+      <c r="A51" s="18"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -2843,11 +2773,13 @@
       <c r="AB51" s="1"/>
     </row>
     <row r="52" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="9" t="s">
-        <v>59</v>
+      <c r="A52" s="15">
+        <v>13</v>
       </c>
+      <c r="B52" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -2875,11 +2807,11 @@
       <c r="AB52" s="1"/>
     </row>
     <row r="53" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31">
-        <v>15</v>
+      <c r="A53" s="15">
+        <v>14</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>60</v>
+      <c r="B53" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2909,10 +2841,10 @@
       <c r="AB53" s="1"/>
     </row>
     <row r="54" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="5" t="s">
-        <v>73</v>
+      <c r="A54" s="18"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -2941,13 +2873,11 @@
       <c r="AB54" s="1"/>
     </row>
     <row r="55" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="31">
-        <v>16</v>
+      <c r="A55" s="18"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="8" t="s">
+        <v>53</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -2975,9 +2905,11 @@
       <c r="AB55" s="1"/>
     </row>
     <row r="56" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="13" t="s">
-        <v>62</v>
+      <c r="A56" s="15">
+        <v>15</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -3007,10 +2939,10 @@
       <c r="AB56" s="1"/>
     </row>
     <row r="57" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="13" t="s">
-        <v>63</v>
+      <c r="A57" s="15"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -3039,11 +2971,13 @@
       <c r="AB57" s="1"/>
     </row>
     <row r="58" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="13" t="s">
-        <v>64</v>
+      <c r="A58" s="15">
+        <v>16</v>
       </c>
+      <c r="B58" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -3071,11 +3005,11 @@
       <c r="AB58" s="1"/>
     </row>
     <row r="59" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="13" t="s">
-        <v>65</v>
+      <c r="A59" s="18"/>
+      <c r="B59" s="38" t="s">
+        <v>56</v>
       </c>
+      <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -3102,16 +3036,16 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
     </row>
-    <row r="60" spans="1:28" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="27"/>
-      <c r="B60" s="14" t="s">
-        <v>66</v>
+    <row r="60" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="10" t="s">
+        <v>57</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="16"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="7"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -3135,13 +3069,15 @@
       <c r="AB60" s="1"/>
     </row>
     <row r="61" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="7"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -3165,13 +3101,15 @@
       <c r="AB61" s="1"/>
     </row>
     <row r="62" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="7"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -3194,15 +3132,16 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
     </row>
-    <row r="63" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>79</v>
+    <row r="63" spans="1:28" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="20"/>
+      <c r="B63" s="39" t="s">
+        <v>60</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="12"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -3227,9 +3166,8 @@
     </row>
     <row r="64" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3256,11 +3194,10 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
     </row>
-    <row r="65" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -3288,10 +3225,10 @@
       <c r="AB65" s="1"/>
     </row>
     <row r="66" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="4" t="s">
-        <v>74</v>
+      <c r="A66" s="3" t="s">
+        <v>73</v>
       </c>
+      <c r="B66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -3321,7 +3258,7 @@
     <row r="67" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -3349,10 +3286,10 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
     </row>
-    <row r="68" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -3383,7 +3320,7 @@
     <row r="69" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3414,7 +3351,7 @@
     <row r="70" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="4" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3445,7 +3382,7 @@
     <row r="71" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="4" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3475,9 +3412,8 @@
     </row>
     <row r="72" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4" t="s">
-        <v>84</v>
+      <c r="B72" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3507,9 +3443,8 @@
     </row>
     <row r="73" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4" t="s">
-        <v>83</v>
+      <c r="B73" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3540,9 +3475,8 @@
     <row r="74" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
-      <c r="C74" s="34"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3571,9 +3505,9 @@
     </row>
     <row r="75" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="34"/>
-      <c r="C75" s="33" t="s">
-        <v>80</v>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3603,9 +3537,9 @@
     </row>
     <row r="76" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="34"/>
-      <c r="C76" s="33" t="s">
-        <v>81</v>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3635,10 +3569,10 @@
     </row>
     <row r="77" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="33" t="s">
-        <v>82</v>
+      <c r="B77" s="4" t="s">
+        <v>80</v>
       </c>
+      <c r="C77" s="17"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -3667,8 +3601,10 @@
     </row>
     <row r="78" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -3697,8 +3633,10 @@
     </row>
     <row r="79" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="16" t="s">
+        <v>75</v>
+      </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -3727,8 +3665,10 @@
     </row>
     <row r="80" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -32345,23 +32285,113 @@
       <c r="AA1033" s="1"/>
       <c r="AB1033" s="1"/>
     </row>
+    <row r="1034" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1034" s="1"/>
+      <c r="B1034" s="1"/>
+      <c r="C1034" s="1"/>
+      <c r="D1034" s="1"/>
+      <c r="E1034" s="1"/>
+      <c r="F1034" s="1"/>
+      <c r="G1034" s="1"/>
+      <c r="H1034" s="1"/>
+      <c r="I1034" s="1"/>
+      <c r="J1034" s="1"/>
+      <c r="K1034" s="1"/>
+      <c r="L1034" s="1"/>
+      <c r="M1034" s="1"/>
+      <c r="N1034" s="1"/>
+      <c r="O1034" s="1"/>
+      <c r="P1034" s="1"/>
+      <c r="Q1034" s="1"/>
+      <c r="R1034" s="1"/>
+      <c r="S1034" s="1"/>
+      <c r="T1034" s="1"/>
+      <c r="U1034" s="1"/>
+      <c r="V1034" s="1"/>
+      <c r="W1034" s="1"/>
+      <c r="X1034" s="1"/>
+      <c r="Y1034" s="1"/>
+      <c r="Z1034" s="1"/>
+      <c r="AA1034" s="1"/>
+      <c r="AB1034" s="1"/>
+    </row>
+    <row r="1035" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1035" s="1"/>
+      <c r="B1035" s="1"/>
+      <c r="C1035" s="1"/>
+      <c r="D1035" s="1"/>
+      <c r="E1035" s="1"/>
+      <c r="F1035" s="1"/>
+      <c r="G1035" s="1"/>
+      <c r="H1035" s="1"/>
+      <c r="I1035" s="1"/>
+      <c r="J1035" s="1"/>
+      <c r="K1035" s="1"/>
+      <c r="L1035" s="1"/>
+      <c r="M1035" s="1"/>
+      <c r="N1035" s="1"/>
+      <c r="O1035" s="1"/>
+      <c r="P1035" s="1"/>
+      <c r="Q1035" s="1"/>
+      <c r="R1035" s="1"/>
+      <c r="S1035" s="1"/>
+      <c r="T1035" s="1"/>
+      <c r="U1035" s="1"/>
+      <c r="V1035" s="1"/>
+      <c r="W1035" s="1"/>
+      <c r="X1035" s="1"/>
+      <c r="Y1035" s="1"/>
+      <c r="Z1035" s="1"/>
+      <c r="AA1035" s="1"/>
+      <c r="AB1035" s="1"/>
+    </row>
+    <row r="1036" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1036" s="1"/>
+      <c r="B1036" s="1"/>
+      <c r="C1036" s="1"/>
+      <c r="D1036" s="1"/>
+      <c r="E1036" s="1"/>
+      <c r="F1036" s="1"/>
+      <c r="G1036" s="1"/>
+      <c r="H1036" s="1"/>
+      <c r="I1036" s="1"/>
+      <c r="J1036" s="1"/>
+      <c r="K1036" s="1"/>
+      <c r="L1036" s="1"/>
+      <c r="M1036" s="1"/>
+      <c r="N1036" s="1"/>
+      <c r="O1036" s="1"/>
+      <c r="P1036" s="1"/>
+      <c r="Q1036" s="1"/>
+      <c r="R1036" s="1"/>
+      <c r="S1036" s="1"/>
+      <c r="T1036" s="1"/>
+      <c r="U1036" s="1"/>
+      <c r="V1036" s="1"/>
+      <c r="W1036" s="1"/>
+      <c r="X1036" s="1"/>
+      <c r="Y1036" s="1"/>
+      <c r="Z1036" s="1"/>
+      <c r="AA1036" s="1"/>
+      <c r="AB1036" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <webPublishItems count="2">
-    <webPublishItem id="22283" divId="9164_22283" sourceType="range" sourceRef="A1:G71" destinationFile="D:\SADocument\8.10.2\UPDATE\ITEM_15\RTE\attachment\9164.htm"/>
-    <webPublishItem id="6678" divId="9164_6678" sourceType="range" sourceRef="A1:G77" destinationFile="D:\SADocument\8.10.2\UPDATE\ITEM_15\RTE\attachment\9164.htm"/>
+    <webPublishItem id="22283" divId="9164_22283" sourceType="range" sourceRef="A1:G74" destinationFile="D:\SADocument\8.10.2\UPDATE\ITEM_15\RTE\attachment\9164.htm"/>
+    <webPublishItem id="6678" divId="9164_6678" sourceType="range" sourceRef="A1:G80" destinationFile="D:\SADocument\8.10.2\UPDATE\ITEM_15\RTE\attachment\9164.htm"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/8.10.2/UPDATE/ITEM_15/RTE/attachment/9164.xlsx
+++ b/8.10.2/UPDATE/ITEM_15/RTE/attachment/9164.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
   <si>
     <t>#</t>
   </si>
@@ -124,15 +124,7 @@
     <t>會辦 (原加簽)</t>
   </si>
   <si>
-    <t>加簽 (原記錄移轉)</t>
-  </si>
-  <si>
     <t>特定對象(人員資料)</t>
-  </si>
-  <si>
-    <t>用意: 原會簽人員在收到簽核通知時，將該關卡的簽核權限移轉至其他人員身上
-1. 可多人
-2. 觸發時機: 當前關卡，會簽核人指定加簽人員後，發送郵件通知 (同會簽人員的通知郵件內容)</t>
   </si>
   <si>
     <t>(會簽/加簽)人員簽核狀態: (空白)/同意/不同意/退簽，空白表示尚未簽核。 當執行撤簽時，狀態會被清空</t>
@@ -357,12 +349,266 @@
 4. 當前關卡，會簽人員可當下決定是否增加會辦人員"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>加簽的類別有二，目前僅支援一般加簽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本版未支援</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>向前加簽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平行單位簽核關係</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>若流程簽核到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主管，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>但</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主管簽核時需詢問相關主管意見，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>即可使用向前加簽，相關主管簽核後，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>流程將回到原</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主管身上。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>一般加簽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上對下簽核關係</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>若流程簽核至部門經理，部門經理簽核時判斷需上呈總經理，由總經理核決，即可使用一般加簽</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用意: 原會簽人員在收到簽核通知時，將該關卡的簽核權限移轉至其他人員身上
+1. 可多人
+2. 觸發時機: 當前關卡，會簽核人指定加簽人員後，發送郵件通知 (同會簽人員的通知郵件內容)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加簽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -435,6 +681,21 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="5">
@@ -663,7 +924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,23 +988,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -769,9 +1018,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -782,6 +1028,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1084,14 +1351,14 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>69</v>
+      <c r="B1" s="36" t="s">
+        <v>67</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1118,7 +1385,7 @@
       <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6"/>
@@ -1150,7 +1417,7 @@
     </row>
     <row r="3" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
-      <c r="B3" s="28"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1182,7 +1449,7 @@
     </row>
     <row r="4" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="28"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1214,7 +1481,7 @@
     </row>
     <row r="5" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
-      <c r="B5" s="28"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1248,7 +1515,7 @@
       <c r="A6" s="15">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6"/>
@@ -1280,7 +1547,7 @@
     </row>
     <row r="7" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="28"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +1579,7 @@
     </row>
     <row r="8" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1346,7 +1613,7 @@
       <c r="A9" s="15">
         <v>3</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="6"/>
@@ -1378,7 +1645,7 @@
     </row>
     <row r="10" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="28"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
@@ -1412,7 +1679,7 @@
       <c r="A11" s="15">
         <v>4</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="6"/>
@@ -1444,7 +1711,7 @@
     </row>
     <row r="12" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
-      <c r="B12" s="30"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="9" t="s">
         <v>12</v>
       </c>
@@ -1476,7 +1743,7 @@
     </row>
     <row r="13" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="30"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1510,11 +1777,11 @@
       <c r="A14" s="15">
         <v>5</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>85</v>
+      <c r="B14" s="27" t="s">
+        <v>83</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
@@ -1542,11 +1809,11 @@
     </row>
     <row r="15" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
@@ -1574,11 +1841,11 @@
     </row>
     <row r="16" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="24"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
@@ -1606,11 +1873,11 @@
     </row>
     <row r="17" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="25" t="s">
-        <v>86</v>
+      <c r="B17" s="29"/>
+      <c r="C17" s="22" t="s">
+        <v>84</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
@@ -1640,12 +1907,12 @@
       <c r="A18" s="15">
         <v>6</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
       <c r="H18" s="1"/>
@@ -1672,12 +1939,12 @@
     </row>
     <row r="19" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
       <c r="H19" s="1"/>
@@ -1704,12 +1971,12 @@
     </row>
     <row r="20" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="25" t="s">
-        <v>87</v>
+      <c r="B20" s="29"/>
+      <c r="C20" s="22" t="s">
+        <v>85</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7"/>
       <c r="H20" s="1"/>
@@ -1736,12 +2003,12 @@
     </row>
     <row r="21" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25" t="s">
-        <v>88</v>
+      <c r="B21" s="29"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22" t="s">
+        <v>86</v>
       </c>
-      <c r="E21" s="24"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
       <c r="H21" s="1"/>
@@ -1768,12 +2035,12 @@
     </row>
     <row r="22" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25" t="s">
-        <v>89</v>
+      <c r="B22" s="29"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22" t="s">
+        <v>87</v>
       </c>
-      <c r="E22" s="24"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
       <c r="H22" s="1"/>
@@ -1802,7 +2069,7 @@
       <c r="A23" s="15">
         <v>7</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="6"/>
@@ -1834,19 +2101,19 @@
     </row>
     <row r="24" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35" t="s">
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="36" t="s">
-        <v>70</v>
+      <c r="G24" s="31" t="s">
+        <v>68</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1872,16 +2139,16 @@
     </row>
     <row r="25" spans="1:28" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>1</v>
@@ -1910,11 +2177,11 @@
     </row>
     <row r="26" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="19" t="s">
         <v>25</v>
       </c>
@@ -1946,11 +2213,11 @@
     </row>
     <row r="27" spans="1:28" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="19" t="s">
         <v>25</v>
       </c>
@@ -1982,11 +2249,11 @@
     </row>
     <row r="28" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="19" t="s">
         <v>25</v>
       </c>
@@ -2018,16 +2285,16 @@
     </row>
     <row r="29" spans="1:28" ht="81" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>1</v>
@@ -2056,16 +2323,16 @@
     </row>
     <row r="30" spans="1:28" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="19" t="s">
-        <v>33</v>
-      </c>
       <c r="F30" s="19" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>1</v>
@@ -2094,7 +2361,7 @@
     </row>
     <row r="31" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
-      <c r="B31" s="30"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2126,8 +2393,8 @@
       <c r="A32" s="15">
         <v>8</v>
       </c>
-      <c r="B32" s="27" t="s">
-        <v>35</v>
+      <c r="B32" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -2158,9 +2425,9 @@
     </row>
     <row r="33" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="6" t="s">
-        <v>36</v>
+      <c r="B33" s="24"/>
+      <c r="C33" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -2190,9 +2457,9 @@
     </row>
     <row r="34" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
-      <c r="B34" s="28"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -2222,9 +2489,9 @@
     </row>
     <row r="35" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
-      <c r="B35" s="28"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -2256,8 +2523,8 @@
       <c r="A36" s="15">
         <v>9</v>
       </c>
-      <c r="B36" s="27" t="s">
-        <v>39</v>
+      <c r="B36" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -2288,9 +2555,9 @@
     </row>
     <row r="37" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
-      <c r="B37" s="30"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -2320,9 +2587,9 @@
     </row>
     <row r="38" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
-      <c r="B38" s="30"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -2352,9 +2619,9 @@
     </row>
     <row r="39" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
-      <c r="B39" s="30"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -2384,12 +2651,12 @@
     </row>
     <row r="40" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="25" t="s">
-        <v>82</v>
+      <c r="B40" s="26"/>
+      <c r="C40" s="22" t="s">
+        <v>80</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
       <c r="F40" s="6"/>
       <c r="G40" s="7"/>
       <c r="H40" s="1"/>
@@ -2416,12 +2683,12 @@
     </row>
     <row r="41" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="25" t="s">
-        <v>83</v>
+      <c r="B41" s="24"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="22" t="s">
+        <v>81</v>
       </c>
-      <c r="E41" s="24"/>
+      <c r="E41" s="21"/>
       <c r="F41" s="6"/>
       <c r="G41" s="7"/>
       <c r="H41" s="1"/>
@@ -2448,12 +2715,12 @@
     </row>
     <row r="42" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="25" t="s">
-        <v>84</v>
+      <c r="B42" s="24"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22" t="s">
+        <v>82</v>
       </c>
-      <c r="E42" s="24"/>
+      <c r="E42" s="21"/>
       <c r="F42" s="6"/>
       <c r="G42" s="7"/>
       <c r="H42" s="1"/>
@@ -2482,8 +2749,8 @@
       <c r="A43" s="15">
         <v>10</v>
       </c>
-      <c r="B43" s="37" t="s">
-        <v>72</v>
+      <c r="B43" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -2514,9 +2781,9 @@
     </row>
     <row r="44" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
-      <c r="B44" s="30"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -2546,9 +2813,9 @@
     </row>
     <row r="45" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
-      <c r="B45" s="30"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -2580,8 +2847,8 @@
       <c r="A46" s="15">
         <v>11</v>
       </c>
-      <c r="B46" s="28" t="s">
-        <v>45</v>
+      <c r="B46" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -2612,9 +2879,9 @@
     </row>
     <row r="47" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
-      <c r="B47" s="30"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -2644,9 +2911,9 @@
     </row>
     <row r="48" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
-      <c r="B48" s="30"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -2676,10 +2943,10 @@
     </row>
     <row r="49" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
-      <c r="B49" s="30"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="6"/>
       <c r="D49" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -2710,8 +2977,8 @@
       <c r="A50" s="15">
         <v>12</v>
       </c>
-      <c r="B50" s="27" t="s">
-        <v>48</v>
+      <c r="B50" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -2742,9 +3009,9 @@
     </row>
     <row r="51" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
-      <c r="B51" s="30"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -2776,8 +3043,8 @@
       <c r="A52" s="15">
         <v>13</v>
       </c>
-      <c r="B52" s="27" t="s">
-        <v>50</v>
+      <c r="B52" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2810,8 +3077,8 @@
       <c r="A53" s="15">
         <v>14</v>
       </c>
-      <c r="B53" s="27" t="s">
-        <v>51</v>
+      <c r="B53" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2842,9 +3109,9 @@
     </row>
     <row r="54" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
-      <c r="B54" s="30"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -2874,9 +3141,9 @@
     </row>
     <row r="55" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
-      <c r="B55" s="30"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -2908,8 +3175,8 @@
       <c r="A56" s="15">
         <v>15</v>
       </c>
-      <c r="B56" s="27" t="s">
-        <v>54</v>
+      <c r="B56" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -2940,9 +3207,9 @@
     </row>
     <row r="57" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
-      <c r="B57" s="30"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -2974,8 +3241,8 @@
       <c r="A58" s="15">
         <v>16</v>
       </c>
-      <c r="B58" s="27" t="s">
-        <v>55</v>
+      <c r="B58" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -3006,8 +3273,8 @@
     </row>
     <row r="59" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
-      <c r="B59" s="38" t="s">
-        <v>56</v>
+      <c r="B59" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -3038,9 +3305,9 @@
     </row>
     <row r="60" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
-      <c r="B60" s="30"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -3070,9 +3337,9 @@
     </row>
     <row r="61" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
-      <c r="B61" s="30"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -3102,9 +3369,9 @@
     </row>
     <row r="62" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
-      <c r="B62" s="30"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -3134,8 +3401,8 @@
     </row>
     <row r="63" spans="1:28" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
-      <c r="B63" s="39" t="s">
-        <v>60</v>
+      <c r="B63" s="34" t="s">
+        <v>58</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -3226,7 +3493,7 @@
     </row>
     <row r="66" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
@@ -3258,7 +3525,7 @@
     <row r="67" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -3289,7 +3556,7 @@
     <row r="68" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -3320,7 +3587,7 @@
     <row r="69" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3351,7 +3618,7 @@
     <row r="70" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3382,7 +3649,7 @@
     <row r="71" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3413,7 +3680,7 @@
     <row r="72" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3444,7 +3711,7 @@
     <row r="73" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3475,7 +3742,7 @@
     <row r="74" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3507,7 +3774,7 @@
       <c r="A75" s="1"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3539,7 +3806,7 @@
       <c r="A76" s="1"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3570,7 +3837,7 @@
     <row r="77" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="1"/>
@@ -3603,7 +3870,7 @@
       <c r="A78" s="1"/>
       <c r="B78" s="17"/>
       <c r="C78" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3635,7 +3902,7 @@
       <c r="A79" s="1"/>
       <c r="B79" s="17"/>
       <c r="C79" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3667,7 +3934,7 @@
       <c r="A80" s="1"/>
       <c r="B80" s="17"/>
       <c r="C80" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3697,9 +3964,11 @@
     </row>
     <row r="81" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="B81" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -3727,9 +3996,11 @@
     </row>
     <row r="82" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="17"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -3757,9 +4028,11 @@
     </row>
     <row r="83" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" s="17"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>

--- a/8.10.2/UPDATE/ITEM_15/RTE/attachment/9164.xlsx
+++ b/8.10.2/UPDATE/ITEM_15/RTE/attachment/9164.xlsx
@@ -350,10 +350,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>加簽的類別有二，目前僅支援一般加簽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>(</t>
     </r>
@@ -601,6 +597,10 @@
   </si>
   <si>
     <t>加簽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>加簽的類別有二，目前僅支援一般加簽</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1333,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1036"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2324,7 +2324,7 @@
     <row r="30" spans="1:28" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -2332,7 +2332,7 @@
         <v>32</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>1</v>
@@ -3965,7 +3965,7 @@
     <row r="81" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="41" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -3998,7 +3998,7 @@
       <c r="A82" s="1"/>
       <c r="B82" s="17"/>
       <c r="C82" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="1"/>
@@ -4030,7 +4030,7 @@
       <c r="A83" s="1"/>
       <c r="B83" s="17"/>
       <c r="C83" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="1"/>
